--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2020/32_Eskişehir_2020.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2020/32_Eskişehir_2020.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2020\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0F053DC0-61D2-419C-9D95-65D5A47B5C34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{30326D68-B283-4C7E-B072-24CF2C6D3112}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="651" xr2:uid="{C2EA3470-B651-45FF-8D95-52D72C56879B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="651" xr2:uid="{E379B0D1-A658-48CC-B2BB-BF2576A6E062}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="101" r:id="rId1"/>
@@ -953,14 +953,14 @@
   <cellStyles count="10">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{CB33E00D-8C45-4E0B-BD24-A8E0ACD7CECE}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{245C57F8-A743-440F-B2DC-73B544898A7F}"/>
-    <cellStyle name="Normal 3" xfId="4" xr:uid="{23D7B1CF-8872-4C4B-B59C-043778173999}"/>
-    <cellStyle name="Normal 3 2" xfId="5" xr:uid="{A232B756-6973-476B-81EE-6ECA836A44CE}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="6" xr:uid="{FAF4230F-779B-42A9-9D9F-EC8319F3185B}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="7" xr:uid="{3865DB5E-892B-49DC-8D1A-36A0830EC6B0}"/>
-    <cellStyle name="Not 2" xfId="8" xr:uid="{8B5BD126-DEF3-44F4-B4A8-170A36DFA87D}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="9" xr:uid="{20BFA484-144F-4AEB-8D4F-3040AB25F2F0}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{7EC027B3-FE7F-4DA6-BA3F-96B273DA399F}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{C050F6FF-C7CB-46ED-996F-0031C256F812}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{59B53D83-B324-4619-B1B2-F3F82B48B162}"/>
+    <cellStyle name="Normal 3 2" xfId="5" xr:uid="{185769D6-9324-4C27-8763-856F3728A575}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="6" xr:uid="{DDA20074-0196-4779-81C4-D7041449007C}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="7" xr:uid="{2C5E3151-0C81-40BB-B6AB-479FCD5BE896}"/>
+    <cellStyle name="Not 2" xfId="8" xr:uid="{844467C2-8487-4964-8F17-F6C428C7593F}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="9" xr:uid="{5D0B4252-DC21-4DDA-AC3B-F9A639C60DB5}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1330,7 +1330,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD2F7DC1-7B53-4D8E-8602-9C0BCD342229}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54145171-1936-439F-9733-B4140A0A5AA5}">
   <dimension ref="A2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -2596,18 +2596,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{8315A5CD-BD27-4CC9-B6BA-6B598E2B5053}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{51995AEB-59DF-481A-8DB6-E57E7EBB0461}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{52A0C52A-5A66-4CAA-A2C6-FBB0DAB8A1DB}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{13FD3FC7-49C2-4727-ACA0-1CFFC0603503}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{1D9AD123-F585-4622-BDC6-E04D5DB54EEF}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{7BE1D357-E4B6-4C13-92B8-F2EA2089F69B}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{04086B19-019E-4D89-9A39-E0C3D78128CA}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{63A57CBF-DB14-48DF-9CFE-479CC2AA9480}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{BB6AF437-EE26-43DB-96AA-E31E60923A74}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{911C15C2-D3B6-410B-929A-2679D2ED92A7}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{E5DC7389-146E-4587-8D3D-C7B42CF4C03A}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{5743EFBC-214A-48A4-8790-614160AAC049}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{143EE6CE-C6E8-47A5-A665-978AC78B7C0D}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{B4BF391B-E947-4434-9253-6FF5F675EC81}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{AD2F414F-38D1-4471-9D1B-D21F91EC280C}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{CF0EFA0F-F5C9-4AD5-A266-6B0550AB092C}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{A619B0B8-574D-469D-B7B0-39B1C08FC5BB}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{FF68D8A7-68F6-4149-943D-52E2EACEDDFF}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{FC5EFDC2-A91F-41D6-83F9-C482B583A9AB}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{E6FFB198-BDB4-4B3C-958E-69E0A8AB2154}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{71DE2377-49FE-4A99-8612-228D597DF20C}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{FAEE1CE7-EDAF-42B7-B66D-F464E543AC33}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{A9727357-A384-4A77-904F-DBC0096CA1CC}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{DE1DE965-698E-47AE-B1F1-47E788D0C1B3}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2620,7 +2620,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F34EA4F-086A-46B8-A7CF-F0D0E6F7FC36}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A37504A-D820-4E83-9E63-4802ABC09ABE}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -3875,18 +3875,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{69E4FD76-FAE2-460E-A0E9-0FC1271C28EB}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{246C5E69-3E80-4461-BDE9-35BBFBA14DE2}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{1B71322D-275C-43E7-BA63-F35ECF6E758F}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{7038E2C4-E4C1-42CF-A521-31952943225F}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{A31FA4B1-F908-41FB-B9DB-99E47A6D8363}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{C121F82F-3573-4311-8DB8-10F2137C9038}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{8046670F-6DEB-40CE-88E1-35CFB7AB54EE}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{D6AF686F-390C-43FB-88CC-0D5EF5F3A921}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{3398DF97-4FC3-478E-A9AC-9F96BE46AB8F}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{7172F6C1-A068-4882-9F91-FF9981F94800}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{9997C2D0-E53E-405B-8DC6-315825648E56}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{62E7022D-484F-4F24-8E62-7CC1790BFD0D}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{B9438A95-186C-4C08-81F5-44E05DC2CF6A}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{AB00BE31-2B2D-436E-AA9C-9E0DE76C94AC}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{049077DE-502F-4064-AE43-C7FAB95116BC}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{99E54FC5-A6A2-4E55-80CB-9E9738F4D1F3}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{559F258A-3A1C-45CA-AABF-2633E8EE2535}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{313695FB-3708-4CDD-822D-3ACE05BA0482}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{20877F9A-A72A-4911-90F3-F084786BC304}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{51702F38-5B03-4AFF-AD26-0A79C9C43F40}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{A9EC5E1E-C10B-4EC4-BBE7-44F2B71D660A}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{E1F1D56E-B039-4A7C-A3B6-F603560AAF77}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{21D952D6-530B-4DCF-82AA-7A8CA1451304}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{E41001DF-82EA-48C7-8586-E91BA0F3E61C}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3899,7 +3899,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52B69232-2246-4E1D-A58F-9CC3F48AB333}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA826949-667F-47EF-A78B-7EFCEADE0B28}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -5156,18 +5156,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{F554D282-CE07-4C07-A6FA-89C4CF8594B9}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C3ABB2EB-69B3-4B77-806B-11C72790B6F5}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{6E1A6523-69E3-4690-894C-683B642697BB}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{38EB70B1-ADC1-40FD-830B-ECD7F1E2F8C2}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{25DE6035-5DA5-4E35-A477-376A42C27D33}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{BA489FF8-B39B-4FC6-989A-B38F78AA9C47}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{28917F89-8E6C-4143-AC4D-A7BF176EF482}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{C808A578-0B42-4B5B-9DF2-D4B2AD333475}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{FC1CEBE8-E60A-4B3B-9143-B5784F9F4BE1}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{4CFF3E81-3F43-479C-A11A-E35E1223C1B7}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{AA47E830-1F50-4B78-BC17-D453523030D2}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{D4804722-1CB4-418A-9CF2-BBFC2B905F1D}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{2DB0A8CB-620C-40D2-B2EC-8B3982BABE4D}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{110BBAD7-4667-4D4D-BDC0-5B3507B897F3}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{5C969054-0730-4431-A667-AE2C575B3C28}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{5F7BF096-4384-4284-A113-B6D234610E96}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{DAAEB8DD-6B93-403B-8863-6B357AAC60AC}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{A1EECAA0-B0FB-4B53-AE4F-0FBE7322AD6F}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{73F08F9D-7B49-43FB-BBF8-33E49CC606D3}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{7862805E-5B43-4D32-87B5-44E42BBDF043}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{22E04F45-69EE-4F62-A2A2-E925DCAAC0FF}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{F7BD328A-1601-4F41-BDCB-9BD3E9AA390B}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{A7ECF2F3-3FFF-43A2-BDDA-774F1D319899}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{65D68A23-15DA-44C0-8AE5-999492D318D7}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5180,7 +5180,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FB16C52-0A55-4B50-9DD8-9A58A6424D85}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8BF3A76-FFB2-4131-88FB-5F3A5E33256C}">
   <sheetPr codeName="Sayfa12"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -6418,18 +6418,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{1ACEC4FB-FF35-48C2-A5FD-2CDB6728EBDA}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{7E30752A-657F-4D2F-85C6-FF34B8B8F2F4}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{DAEB05A1-F129-4FA8-A3A9-E4D288ECAE34}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{761B5E23-9FC4-48C6-ABDC-CFCD1FD60547}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{7D2D49F3-8339-4901-BF19-771783B0732F}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{61F7D556-1F4D-4734-8099-FD40235A45AF}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{0CFAC543-5D7B-4244-B39A-771DAA795F7A}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{3F0B248A-C8C9-41EF-A497-E7783778765A}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{C3606503-EA43-4652-8980-E5D847986ED8}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{8D6250F8-D2EE-4550-92A1-3AE7D9A398DA}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{3C85ED2A-653C-4B62-98F2-91E23E694824}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{D80E5C0B-F1E9-4E5C-BFE0-9B92B49A9BD7}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{440CEEE5-A19F-4AC8-8362-1E3BB0B60BC1}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{E8650C4B-893C-4291-B0EC-407E9CDE2D80}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{499C022C-FAAC-40FE-BE2D-FF80330CD15B}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{1B0A27D1-59B3-495F-89D4-56F2D3A24842}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{8692694F-E7EF-4BD8-8BEB-C66719DBBE35}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{8CCABA8E-2F74-4678-A9FA-F36401A415F7}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{5EC8E389-4C99-4558-92DB-0A47D2FBB42D}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{E70FF4D8-A648-4826-8BD9-3A0E0EE38F62}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{65B7634F-47B0-483E-BCCB-69AFEA3DE80A}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{6611D566-253E-416B-8D39-67A545523807}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{952EE287-1F1B-44AC-B488-C95F2211E773}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{F71A6B33-4FB2-4E56-BA86-C67DFC618E65}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6442,7 +6442,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{035B3FDA-A2AA-46E9-9267-39FE87158946}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{892CA5D9-8A31-48AB-A40D-F9998ECB2ED7}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7705,18 +7705,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{276E1278-C6BF-44EB-B95B-FA834BFC6759}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C2E5000D-9C70-4437-AB97-9C0070DB9C79}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{296BE72B-D249-4C75-ACD7-C5778481B607}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{7280F826-0F91-48B6-821C-4BA674873BFD}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{F5F3E840-DE3B-416C-8DF0-5032ADACC7D0}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{EF02A975-6645-41C2-B6E8-4AB10E95986D}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{A510FFA5-E536-4031-B206-3B89B3C082DE}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{B4755131-84C9-462A-8E72-DEA23F169C3B}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{5D156E03-BB84-4C53-B675-D98BED767C0A}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{B14BDC24-9921-4636-90F3-5897F0CDD370}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{5CF48AB6-5AB7-47E3-8904-12770039DF66}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{0EEF3159-FFAA-4D61-AEE0-F2204F265BE6}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{90B63198-F417-4CAC-89AC-D77F942CFE14}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{E71ED829-EE78-4FD4-B198-F0F44AA5CA8B}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{68F47CAB-A671-4ED3-ABF5-FE9C50D1508A}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{246122DE-3B78-41DB-9359-C51DF5A65D02}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{2EC0A3ED-2282-49DD-BDB2-1D501653A9A5}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{912BA487-62D3-4560-8083-9E8FD8A26F74}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{563E32D1-5A51-4872-B84E-7E5E25F826A6}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{E7BF9DAC-0431-4891-8F24-3B98EDD9FCAE}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{CB954A67-9A68-462F-A7E3-35600BF16E99}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{7C5D0569-9234-4583-BF2F-213F92C0697D}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{471F230A-CC64-4E58-847A-B731BDD650DB}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{FBEF1FA1-E394-447E-8884-E5B64A2631EC}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7729,7 +7729,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF8BC2FC-E185-4BF5-9EBD-92A5BD0ED270}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6186DA7C-3BC8-4375-87A1-463FE9D7B459}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -8992,18 +8992,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{39DD31BA-2F7A-4FF6-A92C-7F3A86AF9A37}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{5DAF8869-686E-4B53-A0AC-C530887860AD}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{9A25985F-4190-4D55-A97A-EB2F2B78E80A}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{92CAC0F3-39DC-45A8-87DC-DEAA6DF779CB}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{4458A9A0-12AE-4F04-953F-BEC35F77CB75}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{3E174C09-15B7-4BAE-B040-0692A72B6397}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{2B0ABF3F-0820-4A29-B842-C843E6F12E70}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{B7AF1A6F-DDC1-45A1-BB4C-45C6095F596B}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{393C7BDE-9B23-4200-B109-4E746572F912}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{639C5857-F858-4CF6-AA03-2A62C26CD93F}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{E3B9C37E-2117-4730-BF26-C460658410B6}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{C812A80A-1EAE-43C2-921E-9B2DC5F9E869}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{37D99CB7-5DBB-415F-B629-EDB933A0235F}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C827687F-FB2E-46F9-8A03-F9D2B680A71C}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{3EFA34A9-EA04-40CA-9E38-61406F612128}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{89853AAB-9151-4F0D-A720-68011AABD899}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{BF2B8FD5-1DD8-4A1E-9A34-E5D35888BF8B}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{18B92841-EB5B-466C-96F6-CA71694DDBEF}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{822DEFBD-BB74-4E25-8EC7-E754362002FF}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{D2129967-D169-44CC-9765-EC4637E102E3}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{323E7278-1958-4435-96D2-37808D7EC394}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{03A48897-AE88-49C6-A549-E680FCA1EEB7}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{A34EA5E1-C1BE-4627-BCA4-B913A17002FA}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{DCB16E28-2398-458E-960A-CBB7A5921626}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -9016,7 +9016,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4D0FC1B-C5D5-44FC-9EEE-D105E0D5254D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6738C4C-5032-493B-8C70-024E211EEC68}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -10279,18 +10279,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{76C08162-73CC-4F11-B084-736A7E6BEBE7}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{797514BE-2741-422D-A4B0-0A13AA540CF4}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{B45DA548-C865-47B3-90C5-7C353168EB73}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{0D06CC2B-F987-469C-A50B-C9069C948FDB}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{00C968DE-EAE9-44BD-930D-2C5EF0C05963}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{5DC7A766-3F42-4244-ABE0-62F445166C97}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{E111D729-1F34-4C1C-A17C-FD1353CCBF35}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{6BECC4DC-2E55-4CFB-90D4-8F9C4FC8874C}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{4062DB3B-3C8D-45B6-B267-FF14694A8FA0}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{F86F3625-B62D-4EF2-843B-D52A97DDB835}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{F2EAE2C2-ABB4-4232-ABDE-EAEED8837BA9}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{8D7EE1B0-4164-4D4B-8611-247B2B51C8B2}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{31606071-6E3D-414D-B4EB-BD9C1B1CF3C5}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C81044E4-647E-4585-B4FD-19E69FEBB01C}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{E74FF8A5-F0CE-4704-BF6A-4B245C59744E}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{7EA967CB-389C-4089-A767-3535042F9DBB}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{6C69C192-5F1E-4F11-AA3F-9D1955923FE5}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{B1DCA1E4-E675-4FEC-A45D-312314B6FB62}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{BD9BD3EB-783E-4D75-BE49-845AE65F700E}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{BB2F99BB-528D-43A0-B107-A30E04C349D1}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{D0F28D49-8EB0-4C1D-9694-381B53324D8D}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{DDEAB090-B260-4A56-9B1E-C4B58BAB42BF}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{2019859E-5E12-4391-9785-79ABB9E34299}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{356B36E2-0295-4C11-9B7D-D84BB376A500}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10303,7 +10303,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32D0CAB3-59A3-4E44-BF9D-0E0E2A26D21E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{982FB25E-29C6-4AF2-B1C7-0B1050040A66}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -11566,18 +11566,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{898D45A4-1437-4A67-8981-B11B7F7CA5FF}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{4C47A3E7-F860-4460-9A65-8E3CC90ECFEE}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{9C0DE475-0719-4E18-80A0-F22DA1FA40E8}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{5A20FEDB-709D-48E4-849D-BB36DE2FB041}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{9BD0AABE-5B8E-499D-91F2-82E433F754CD}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{B23360D6-93A2-43DE-AE63-73C4A0D395F8}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{F944886F-84CA-4E0F-B770-8A4F2DB97A03}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{A73A32CC-F058-4E28-8D99-33E71D3AA556}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{BA9C7F2E-4D19-40AE-95B9-4F6BCAF2A64B}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{208BE271-B56C-461C-AB3E-C22A0EFFF5E9}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{D72EF503-9848-45C4-A1B6-9FDE5D50B547}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{4B23C51C-F6C3-451B-BA62-87C408933887}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{05C87A05-50F2-4534-8832-FBFB7EECA33F}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{49DA733F-77B0-4A0A-89EB-6B4F2B0B5C3B}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{6FB721D8-6407-479E-B200-96CBE165BEB6}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{01B0F1AC-DD9E-4A88-81B2-D595D96C88AA}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{94FBE7C5-08D9-4E6E-B452-049526146909}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{9C0F9F17-909D-4BF5-9A3C-E30059C93BF8}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{BBEB4BC4-CEAF-428B-9B1A-936A2F8A2E93}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{532794D3-E85F-4232-B933-3AFF36579EF4}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{D32A37EA-3726-42F1-92F3-28E1999EB253}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{B1768246-D6D5-4322-9797-42C73B52C0CC}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{5BEAF44A-DB8D-458C-A785-D20EF0090641}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{7C7B48C4-74D5-4127-88C7-4CE03EE9FE23}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11590,7 +11590,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9BA71DB-DA71-4CFB-B9F5-6089045ECEE3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7732733B-79D9-46A5-B70F-B4ACA86635EF}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -12853,18 +12853,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{C21CD088-CF71-444C-9F3F-165E90434E3D}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{598F404A-25B8-4400-AA63-53679710081E}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{6B76032F-857C-47EA-B5C4-55EAF8FD8828}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{E8D545F9-38A6-402D-8622-8DE9905C51E6}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{A122FFB6-9F7A-4873-880A-CEA46F02C1C2}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{1D56B166-0385-4F95-B039-CE5E91A3E26D}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{FDA9F68B-8D8D-484A-A286-E87815FE2489}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{330D7EFA-778A-4BAF-8BBF-F60F862B3BF2}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{26E16144-20CE-4866-90F2-9BFF77E6DC3C}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{CE53CCE3-5405-4120-AB4A-DC00B5FCC916}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{D9E079F8-7DF0-46DE-9D86-5E8A35C53B3F}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{EB442656-18F2-43AE-AFC6-B0AB94693805}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{5AC3A1FF-45CB-40F0-B75F-16B375B415C1}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{4AD11CA8-D0AB-4652-8152-BC813C1FE828}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{271234BD-51EC-4A70-B954-511A7B151DD1}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{F19FBE53-B378-4EC2-A49A-29D785C1DB86}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{4E1EBB49-DDB9-4AB1-90F1-AE0C1CD9A91D}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{8BE9D0A1-0E3F-4181-9855-446145E438FA}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{0A00EAB4-292A-4869-A081-35FFA15F35D3}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{1E970A7B-86AC-4CAF-B2B3-D06233B32539}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{0CF91BB9-C79B-4881-9B08-8B1C5160EDC8}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{B1B0E59A-FB5C-42A1-A1D2-7F42AE682EDC}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B338F038-1D5D-4F0E-BB2A-4EE191C2CBCD}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{32F7B77D-842E-49C6-8EC8-31F30E756685}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -12877,7 +12877,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{221F960C-06E6-4C1F-B34D-B4FECC1C0A81}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{269D8B38-CF0F-4F79-8095-6638726EC93B}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -14142,18 +14142,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{D63A7956-251D-4CBA-B692-EEF670A6198C}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{7B93C3EE-A49F-4FFB-9155-BA0BA4256329}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{C49590AE-2A5E-440C-A622-E78A027B16F5}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{AC26D819-9C62-4C53-8A9F-FB77D38969D0}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{164E06A1-15BD-48C2-84EC-D898B134FA95}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{65EB052E-6CE4-4EF4-8C13-BE85EFE28376}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{992521AB-074C-4CE0-8AA8-BA16B9C3B752}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{2AA2FC20-F891-431C-A64B-22D1F95DE747}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{F6DE798A-C750-401A-805C-FE9ECBF38D16}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{8B248367-F26D-4EB6-9E28-40717BD2DBA0}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{9D751E50-22BC-424C-9713-F64DF375F1B0}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{2549D358-50AE-4974-8736-5E63E8F16192}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{FF825BA2-54B7-4429-BC11-953F2F12F79B}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{CE062C18-CB02-426D-9C00-50BA9FF5FCAD}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{3E65A813-A106-40D1-AD7F-3675A5EB056A}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{4E3D46EA-3F45-49D0-8B89-637C3C04EA10}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{D78E3A6B-4E78-4128-A97E-64568AD03232}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{9C2F90D6-1C8F-4F5E-9C9B-F5FA59F726A2}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{4BD8BC43-3577-48DD-A7F6-01DD9A1BF143}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{D81616C0-4CAC-4B65-99C1-5065CBE09C9E}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{59E24CDA-312B-48A6-B0D4-8CFBEC475A49}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{282CD804-3E9D-40BB-915C-FF7DD7554DDD}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{7E4AC3C8-25DA-4D07-B4B4-42C38E25EE97}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{C87CEAE4-60D3-4479-8126-37DB8FFE99EB}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14166,7 +14166,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC644ACE-7C45-400B-8003-D6FD279882C5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A0E5E14-C874-46A2-B806-AA735223C240}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -15431,18 +15431,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{58461550-BDB4-4763-BAC1-5AE25F14A6B4}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{94276B8E-6A83-4EDC-9B77-2BC4F4C4F8FC}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{197760FA-0B25-4D4D-B8D8-6A6B8084E6BB}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{ABF001ED-FFB7-4B7B-B225-8AB286C81DE0}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{F9395434-758B-4C11-A7D0-9131D463C3B8}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{286E04E4-D068-424E-B290-B3BD0B55FE9D}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{C90B8FA5-871F-4D9C-9CF6-B4955B5B6D96}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{C83EA913-6247-4EC4-94B2-0BBD0527B9AF}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{89BED70F-B902-4581-A5D2-1126B36E7009}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{5F563F96-7398-42AB-9042-CA7EFA47E1D7}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{2D968608-F9C5-4DC9-9C15-1D866842900F}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{ED4DA2CE-DBEB-4191-B2BC-9E23D21E10E0}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{00E38D66-98E1-4D79-83B6-EBBBAD20CD2C}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C9BD1335-3C29-48C6-BF87-587D458047C6}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{DCEAC7ED-F52D-4116-9369-01614F1F70E3}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{4CFD2405-446F-4FA1-81B6-D1DAECE06DC4}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{91CDD6E9-1D47-49AF-AA7C-FF6CCF8E519A}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{0A9939CC-AD44-4BEB-A2FC-9E817CB5EBA7}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{E0D3CF47-A97B-47CF-B778-458B6A1DD099}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{AD97DF8C-3293-4FCA-8A43-B42C712647CD}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{593360FD-CC82-4B2E-BABE-F1AB712554AB}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{5351DED4-BD95-4E6B-A098-FC13C67AA5C9}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{610F9D77-08EA-4A52-9691-49357678C01C}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{718D6474-4D04-4766-AA5C-B41097DE0CB1}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -15455,7 +15455,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2588EDB7-4170-45AF-A791-879088141618}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF95E303-B466-4DC4-B8A2-542C0EABF26F}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -16720,18 +16720,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{C52AD421-D266-42D9-8EF4-01657314E120}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{68493253-E6AE-4B0A-99EC-426FD71FE6BF}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{E7C71154-D9B2-4BBB-BC76-5C05EB21F6BA}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{FE868FB7-165E-4228-B948-BEC5EB890E37}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{174125F0-BA92-4373-A72A-FB833F5455CA}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{BAE67704-F5F9-4532-BE04-18B6B5538319}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{9CE20143-349B-46D7-A123-9974815552F9}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{59E31DE3-A0FC-49DC-BF75-E77D047F6539}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{9C71394E-5C07-461D-8CAF-DB1B1E04E7DA}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{A0FCC229-53ED-4F9A-B61E-C8B3FCD5F3CC}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{FC44C0B1-2B70-4C5A-8515-54EB8C36543B}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{C61E8A66-B6B1-4B99-B183-6D75C815A475}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{6096D6BE-D41A-4AB1-A16F-994570BA9E76}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{9372EAB4-309B-48ED-A981-E64BB448C5CF}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{7E4CA494-57C9-4D10-843F-76669FB5713E}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{82F63BDA-EAE4-4B80-BF71-E6506B05C6E2}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{610BC255-698B-4BCF-8AE6-0D57D305F336}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{E50F3CB9-515C-44E3-9FC4-F05C839C7BF4}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{DB30EAFE-CFA5-40E6-A94E-203A722FCB2B}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{B56CE76D-4F47-4551-82B0-0A253526F9C2}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{C9956605-A398-4C88-86A7-4C11306C0E47}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{7B8B1241-4BB8-46C2-AA5D-BFA72CF001A1}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{FAEC4CC9-3650-4ED2-BE39-4DDF24554E8E}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{FBF33716-D3E7-4E1C-8FA0-41DAA3E109EE}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
